--- a/DDAf_2021_Groupements_de_pays.xlsx
+++ b/DDAf_2021_Groupements_de_pays.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
   </bookViews>
   <sheets>
     <sheet name="Groupements de pays" sheetId="1" r:id="rId1"/>

--- a/DDAf_2021_Groupements_de_pays.xlsx
+++ b/DDAf_2021_Groupements_de_pays.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Groupements de pays" sheetId="1" r:id="rId1"/>

--- a/DDAf_2021_Groupements_de_pays.xlsx
+++ b/DDAf_2021_Groupements_de_pays.xlsx
@@ -201,7 +201,7 @@
     <t>High income</t>
   </si>
   <si>
-    <t>Pays à revenu élévé (LAC exclus)</t>
+    <t>Pays à revenu élévé (ALC exclus)</t>
   </si>
   <si>
     <t>ARE</t>

--- a/DDAf_2021_Groupements_de_pays.xlsx
+++ b/DDAf_2021_Groupements_de_pays.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
   </bookViews>
   <sheets>
     <sheet name="Groupements de pays" sheetId="1" r:id="rId1"/>
